--- a/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\Bootstrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6FFD1-F12B-4301-9B7C-1A0503DD5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7411ED3-C785-40CC-9293-E17F30F37E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2835" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
+    <workbookView xWindow="-27540" yWindow="210" windowWidth="16455" windowHeight="17160" activeTab="1" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="CC-Payments-Sale" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="88">
   <si>
     <t>Result</t>
   </si>
@@ -2421,6 +2421,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2428,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343EF54-4827-416A-A016-C445805C86F0}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,6 +2614,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2676,6 +2682,9 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2741,6 +2750,9 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2806,6 +2818,9 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2871,6 +2886,9 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2936,6 +2954,9 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3001,6 +3022,9 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3134,6 +3158,9 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3199,6 +3226,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
@@ -3264,6 +3294,9 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
@@ -3329,6 +3362,9 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3394,6 +3430,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3459,6 +3498,9 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
@@ -3524,6 +3566,9 @@
       </c>
     </row>
     <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>62</v>
       </c>
@@ -3657,6 +3702,9 @@
       </c>
     </row>
     <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3722,6 +3770,9 @@
       </c>
     </row>
     <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
@@ -3787,6 +3838,9 @@
       </c>
     </row>
     <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3852,6 +3906,9 @@
       </c>
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
@@ -3917,6 +3974,9 @@
       </c>
     </row>
     <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
       </c>
@@ -3982,6 +4042,9 @@
       </c>
     </row>
     <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
@@ -4047,6 +4110,9 @@
       </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,6 +4179,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4120,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B3AC86-4723-49D7-AB53-411E6A25C44B}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
@@ -5220,5 +5289,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7411ED3-C785-40CC-9293-E17F30F37E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406E4D0-B227-4CB9-83E7-1B858FD19D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27540" yWindow="210" windowWidth="16455" windowHeight="17160" activeTab="1" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="CC-Payments-Sale" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,40 +673,40 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="42.7109375" style="1"/>
+    <col min="21" max="21" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="42.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,7 +922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,7 +990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2431,41 +2431,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343EF54-4827-416A-A016-C445805C86F0}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="42.7109375" style="1"/>
+    <col min="21" max="21" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="42.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
@@ -4189,41 +4189,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B3AC86-4723-49D7-AB53-411E6A25C44B}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="42.7109375" style="1"/>
+    <col min="21" max="21" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="42.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>

--- a/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
+++ b/KatalonData/Bootstrap/VSP-Payments-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\Bootstrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406E4D0-B227-4CB9-83E7-1B858FD19D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB151E-20F1-48F2-B26F-97F0DADED694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8EA648C6-9B74-4918-B9F6-8ECD80D98AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="CC-Payments-Sale" sheetId="1" r:id="rId1"/>
@@ -4189,8 +4189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B3AC86-4723-49D7-AB53-411E6A25C44B}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
